--- a/Excel worksheet/Supermarket-Sales-Sample-Data_Practice.xlsx
+++ b/Excel worksheet/Supermarket-Sales-Sample-Data_Practice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zain-Ul-Abadin\Desktop\Excel worksheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zain-Ul-Abadin\Desktop\Data-Analysis-Practice\Excel worksheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3817A94-F761-4018-93EF-2D0C14DAE1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B213AF87-F7B0-417C-BA83-F853D71E373C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{13F4AE79-2971-4DD1-83EB-84B9C5A6F743}"/>
   </bookViews>
@@ -1021,7 +1021,7 @@
   <dimension ref="B2:K80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
